--- a/Assets/Scripts/Skill/ActiveBundle.xlsx
+++ b/Assets/Scripts/Skill/ActiveBundle.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>SkillName</t>
   </si>
@@ -68,6 +68,45 @@
   </si>
   <si>
     <t>지정 지점에 불을 생성하여 지나가는 적에게 지속적인 데미지를 줍니다.</t>
+  </si>
+  <si>
+    <t>LightningBolt</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>하늘에서 번개를 떨어트려 인근 적을 감전시킨다.</t>
+  </si>
+  <si>
+    <t>freezing</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>해당 지역을 지나는 적의 이동속도를 낯춘다. 적이 물에 있다면 해당 적을 얼린다.</t>
+  </si>
+  <si>
+    <t>WoodObs</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>적이 지나는 길목을 나무로 막습니다.</t>
+  </si>
+  <si>
+    <t>StoneObs</t>
+  </si>
+  <si>
+    <t>적이 지나는 길목을 돌로 막습니다.</t>
+  </si>
+  <si>
+    <t>BarbedWire</t>
+  </si>
+  <si>
+    <t>적이 지나는 길목을 철조망으로 막습니다.</t>
   </si>
 </sst>
 </file>
@@ -341,6 +380,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="11" max="11" width="10.5"/>
+    <col customWidth="1" min="13" max="13" width="27.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -392,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="4">
         <v>150.0</v>
@@ -407,16 +447,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H2" s="4">
         <v>75.0</v>
       </c>
       <c r="I2" s="2">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="J2" s="2">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="K2" s="5">
         <v>0.0</v>
@@ -460,7 +500,7 @@
         <v>10.0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="K3" s="4">
         <v>0.0</v>
@@ -472,6 +512,226 @@
         <v>18</v>
       </c>
       <c r="N3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2">
         <v>0.0</v>
       </c>
     </row>
